--- a/refs/heads/rc2/StructureDefinition-svc-composition-updated.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-composition-updated.xlsx
@@ -740,7 +740,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>RC1</t>
+    <t>RC2</t>
   </si>
   <si>
     <t>Coding.code</t>
